--- a/barcode_untangling.xlsx
+++ b/barcode_untangling.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="256">
   <si>
     <t>daimu_2.5-24_batch1</t>
   </si>
@@ -793,6 +793,9 @@
   </si>
   <si>
     <t>barcode vs barcode</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
@@ -11860,7 +11863,7 @@
   <dimension ref="A1:AI104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="B1:K1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11918,7 +11921,7 @@
       </c>
       <c r="AI2">
         <f>SUM(AI4:AI103)</f>
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -12032,8 +12035,8 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>1</v>
+      <c r="G4" t="s">
+        <v>255</v>
       </c>
       <c r="H4">
         <v>2.5</v>
@@ -12113,7 +12116,7 @@
       </c>
       <c r="AI4">
         <f>IF(AA4=G4,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
